--- a/patient_data/patient_23.xlsx
+++ b/patient_data/patient_23.xlsx
@@ -711,13 +711,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1188,10 +1188,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1413,13 +1413,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1457,16 +1457,16 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1490,13 +1490,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1611,16 +1611,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1875,10 +1875,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -1952,10 +1952,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2029,10 +2029,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2106,16 +2106,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
